--- a/data-migration/xlsx_1900-/1906_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1906_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E2415-D304-4450-9D3D-52417C5F5B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EEBF9F-6385-49D4-91F9-6280F648B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1119">
   <si>
     <t>Winter</t>
   </si>
@@ -3332,9 +3332,6 @@
     <t>hitzig_hf</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3390,6 +3387,9 @@
   </si>
   <si>
     <t>gysi_a</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -3733,21 +3733,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="11" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1906</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1906</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1906</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1906</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1906</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1906</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1906</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1906</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1906</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1906</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1906</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1906</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1906</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1906</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1906</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1906</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1906</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1906</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1906</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1906</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1906</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1906</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1906</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1906</v>
       </c>
@@ -4405,8 +4405,11 @@
       <c r="I25" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1906</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1906</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1906</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1906</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1906</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1906</v>
       </c>
@@ -4556,13 +4559,13 @@
         <v>771</v>
       </c>
       <c r="H31" t="s">
-        <v>1099</v>
+        <v>1118</v>
       </c>
       <c r="I31" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1906</v>
       </c>
@@ -4582,13 +4585,13 @@
         <v>772</v>
       </c>
       <c r="H32" t="s">
-        <v>1099</v>
+        <v>1118</v>
       </c>
       <c r="I32" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1906</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1906</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1906</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1906</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1906</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1906</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1906</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1906</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1906</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1906</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1906</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1906</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1906</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1906</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1906</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>787</v>
       </c>
       <c r="H47" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I47" t="s">
         <v>1096</v>
@@ -4987,7 +4990,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1906</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1906</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1906</v>
       </c>
@@ -5059,7 +5062,7 @@
         <v>789</v>
       </c>
       <c r="H50" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I50" t="s">
         <v>1096</v>
@@ -5068,7 +5071,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1906</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1906</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1906</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1906</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1906</v>
       </c>
@@ -5192,13 +5195,13 @@
         <v>794</v>
       </c>
       <c r="H55" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I55" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1906</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1906</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1906</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1906</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1906</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1906</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1906</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1906</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1906</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1906</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1906</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1906</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1906</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1906</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1906</v>
       </c>
@@ -5582,13 +5585,13 @@
         <v>807</v>
       </c>
       <c r="H70" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I70" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1906</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1906</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1906</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1906</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1906</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1906</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1906</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1906</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1906</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1906</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1906</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1906</v>
       </c>
@@ -5903,7 +5906,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1906</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1906</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1906</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1906</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1906</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1906</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>817</v>
       </c>
       <c r="H88" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I88" t="s">
         <v>1091</v>
@@ -6062,7 +6065,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1906</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>818</v>
       </c>
       <c r="H89" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I89" t="s">
         <v>1091</v>
@@ -6091,7 +6094,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1906</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1906</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1906</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1906</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1906</v>
       </c>
@@ -6241,13 +6244,13 @@
         <v>823</v>
       </c>
       <c r="H95" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I95" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1906</v>
       </c>
@@ -6267,13 +6270,13 @@
         <v>824</v>
       </c>
       <c r="H96" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I96" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1906</v>
       </c>
@@ -6293,13 +6296,13 @@
         <v>825</v>
       </c>
       <c r="H97" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I97" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1906</v>
       </c>
@@ -6319,13 +6322,13 @@
         <v>826</v>
       </c>
       <c r="H98" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I98" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1906</v>
       </c>
@@ -6345,13 +6348,13 @@
         <v>793</v>
       </c>
       <c r="H99" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I99" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1906</v>
       </c>
@@ -6371,13 +6374,13 @@
         <v>810</v>
       </c>
       <c r="H100" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I100" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1906</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1906</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1906</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1906</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1906</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1906</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1906</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1906</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1906</v>
       </c>
@@ -6611,7 +6614,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1906</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1906</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1906</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1906</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1906</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1906</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1906</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1906</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1906</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>839</v>
       </c>
       <c r="H118" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I118" t="s">
         <v>1091</v>
@@ -6848,7 +6851,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1906</v>
       </c>
@@ -6868,13 +6871,13 @@
         <v>840</v>
       </c>
       <c r="H119" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I119" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1906</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1906</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1906</v>
       </c>
@@ -6946,13 +6949,13 @@
         <v>757</v>
       </c>
       <c r="H122" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I122" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1906</v>
       </c>
@@ -6972,13 +6975,13 @@
         <v>841</v>
       </c>
       <c r="H123" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I123" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1906</v>
       </c>
@@ -6998,13 +7001,13 @@
         <v>761</v>
       </c>
       <c r="H124" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I124" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1906</v>
       </c>
@@ -7024,13 +7027,13 @@
         <v>840</v>
       </c>
       <c r="H125" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I125" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1906</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1906</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1906</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1906</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1906</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1906</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1906</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1906</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1906</v>
       </c>
@@ -7270,7 +7273,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1906</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1906</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1906</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1906</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1906</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1906</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1906</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1906</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1906</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1906</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1906</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1906</v>
       </c>
@@ -7576,13 +7579,13 @@
         <v>757</v>
       </c>
       <c r="H146" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I146" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1906</v>
       </c>
@@ -7602,13 +7605,13 @@
         <v>745</v>
       </c>
       <c r="H147" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I147" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1906</v>
       </c>
@@ -7628,13 +7631,13 @@
         <v>853</v>
       </c>
       <c r="H148" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I148" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1906</v>
       </c>
@@ -7654,13 +7657,13 @@
         <v>757</v>
       </c>
       <c r="H149" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I149" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1906</v>
       </c>
@@ -7686,7 +7689,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1906</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1906</v>
       </c>
@@ -7738,7 +7741,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1906</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1906</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1906</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1906</v>
       </c>
@@ -7842,7 +7845,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1906</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1906</v>
       </c>
@@ -7894,7 +7897,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1906</v>
       </c>
@@ -7920,7 +7923,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1906</v>
       </c>
@@ -7940,13 +7943,13 @@
         <v>757</v>
       </c>
       <c r="H160" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I160" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1906</v>
       </c>
@@ -7966,13 +7969,13 @@
         <v>761</v>
       </c>
       <c r="H161" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I161" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1906</v>
       </c>
@@ -7995,10 +7998,10 @@
         <v>1022</v>
       </c>
       <c r="I162" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1906</v>
       </c>
@@ -8021,10 +8024,10 @@
         <v>1022</v>
       </c>
       <c r="I163" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1906</v>
       </c>
@@ -8047,10 +8050,10 @@
         <v>1022</v>
       </c>
       <c r="I164" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1906</v>
       </c>
@@ -8073,10 +8076,10 @@
         <v>1023</v>
       </c>
       <c r="I165" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1906</v>
       </c>
@@ -8099,10 +8102,10 @@
         <v>1023</v>
       </c>
       <c r="I166" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1906</v>
       </c>
@@ -8125,10 +8128,10 @@
         <v>1023</v>
       </c>
       <c r="I167" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1906</v>
       </c>
@@ -8151,10 +8154,10 @@
         <v>1023</v>
       </c>
       <c r="I168" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1906</v>
       </c>
@@ -8174,13 +8177,13 @@
         <v>864</v>
       </c>
       <c r="H169" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I169" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1906</v>
       </c>
@@ -8200,13 +8203,13 @@
         <v>865</v>
       </c>
       <c r="H170" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I170" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1906</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1906</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1906</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1906</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1906</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1906</v>
       </c>
@@ -8362,7 +8365,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1906</v>
       </c>
@@ -8388,7 +8391,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1906</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1906</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1906</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1906</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1906</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1906</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1906</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1906</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1906</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1906</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1906</v>
       </c>
@@ -8689,7 +8692,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1906</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1906</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1906</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1906</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1906</v>
       </c>
@@ -8819,7 +8822,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1906</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1906</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1906</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1906</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1906</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1906</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1906</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1906</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1906</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1906</v>
       </c>
@@ -9079,7 +9082,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1906</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1906</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1906</v>
       </c>
@@ -9157,7 +9160,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1906</v>
       </c>
@@ -9183,7 +9186,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1906</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1906</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1906</v>
       </c>
@@ -9261,7 +9264,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1906</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1906</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1906</v>
       </c>
@@ -9336,10 +9339,10 @@
         <v>982</v>
       </c>
       <c r="I213" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1906</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1906</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1906</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1906</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1906</v>
       </c>
@@ -9469,7 +9472,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1906</v>
       </c>
@@ -9495,7 +9498,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1906</v>
       </c>
@@ -9521,7 +9524,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1906</v>
       </c>
@@ -9547,10 +9550,10 @@
         <v>1091</v>
       </c>
       <c r="J221" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1906</v>
       </c>
@@ -9576,10 +9579,10 @@
         <v>1091</v>
       </c>
       <c r="J222" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1906</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1906</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1906</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1906</v>
       </c>
@@ -9683,7 +9686,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1906</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1906</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1906</v>
       </c>
@@ -9761,7 +9764,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1906</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1906</v>
       </c>
@@ -9807,13 +9810,13 @@
         <v>763</v>
       </c>
       <c r="H231" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I231" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1906</v>
       </c>
@@ -9833,13 +9836,13 @@
         <v>820</v>
       </c>
       <c r="H232" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I232" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1906</v>
       </c>
@@ -9865,7 +9868,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1906</v>
       </c>
@@ -9891,7 +9894,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1906</v>
       </c>
@@ -9917,10 +9920,10 @@
         <v>1091</v>
       </c>
       <c r="J235" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1906</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1906</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1906</v>
       </c>
@@ -9998,7 +10001,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1906</v>
       </c>
@@ -10024,7 +10027,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1906</v>
       </c>
@@ -10044,13 +10047,13 @@
         <v>910</v>
       </c>
       <c r="H240" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I240" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1906</v>
       </c>
@@ -10070,13 +10073,13 @@
         <v>911</v>
       </c>
       <c r="H241" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I241" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1906</v>
       </c>
@@ -10102,7 +10105,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1906</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1906</v>
       </c>
@@ -10154,7 +10157,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1906</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1906</v>
       </c>
@@ -10200,13 +10203,13 @@
         <v>913</v>
       </c>
       <c r="H246" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I246" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1906</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1906</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1906</v>
       </c>
@@ -10278,13 +10281,13 @@
         <v>915</v>
       </c>
       <c r="H249" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I249" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1906</v>
       </c>
@@ -10304,13 +10307,13 @@
         <v>916</v>
       </c>
       <c r="H250" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I250" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1906</v>
       </c>
@@ -10330,13 +10333,13 @@
         <v>917</v>
       </c>
       <c r="H251" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I251" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1906</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1906</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1906</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1906</v>
       </c>
@@ -10443,7 +10446,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1906</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1906</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1906</v>
       </c>
@@ -10521,7 +10524,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1906</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1906</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1906</v>
       </c>
@@ -10602,7 +10605,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1906</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1906</v>
       </c>
@@ -10657,7 +10660,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1906</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1906</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1906</v>
       </c>
@@ -10738,7 +10741,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1906</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1906</v>
       </c>
@@ -10790,7 +10793,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1906</v>
       </c>
@@ -10819,7 +10822,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1906</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1906</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1906</v>
       </c>
@@ -10891,13 +10894,13 @@
         <v>844</v>
       </c>
       <c r="H272" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I272" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1906</v>
       </c>
@@ -10917,13 +10920,13 @@
         <v>932</v>
       </c>
       <c r="H273" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I273" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1906</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1906</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1906</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1906</v>
       </c>
@@ -11027,7 +11030,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1906</v>
       </c>
@@ -11053,7 +11056,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1906</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1906</v>
       </c>
@@ -11105,7 +11108,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1906</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1906</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1906</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1906</v>
       </c>
@@ -11206,13 +11209,13 @@
         <v>769</v>
       </c>
       <c r="H284" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I284" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1906</v>
       </c>
@@ -11232,13 +11235,13 @@
         <v>936</v>
       </c>
       <c r="H285" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I285" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1906</v>
       </c>
@@ -11264,7 +11267,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1906</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1906</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1906</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1906</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1906</v>
       </c>
@@ -11394,7 +11397,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1906</v>
       </c>
@@ -11420,7 +11423,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1906</v>
       </c>
@@ -11446,7 +11449,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1906</v>
       </c>
@@ -11475,7 +11478,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1906</v>
       </c>
@@ -11504,7 +11507,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1906</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1906</v>
       </c>
@@ -11559,7 +11562,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1906</v>
       </c>
@@ -11585,7 +11588,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1906</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1906</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1906</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1906</v>
       </c>
@@ -11689,7 +11692,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1906</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1906</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1906</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1906</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1906</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1906</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1906</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1906</v>
       </c>
@@ -11900,7 +11903,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1906</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1906</v>
       </c>
@@ -11952,7 +11955,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1906</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1906</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1906</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1906</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1906</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1906</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1906</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1906</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1906</v>
       </c>
@@ -12186,7 +12189,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1906</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1906</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1906</v>
       </c>
@@ -12264,7 +12267,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1906</v>
       </c>
@@ -12290,7 +12293,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1906</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1906</v>
       </c>
@@ -12342,7 +12345,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1906</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1906</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1906</v>
       </c>
@@ -12420,7 +12423,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1906</v>
       </c>
@@ -12446,7 +12449,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1906</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1906</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1906</v>
       </c>
@@ -12533,7 +12536,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1906</v>
       </c>
@@ -12562,7 +12565,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1906</v>
       </c>
@@ -12591,7 +12594,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1906</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1906</v>
       </c>
@@ -12643,13 +12646,13 @@
         <v>959</v>
       </c>
       <c r="H338" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I338" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1906</v>
       </c>
@@ -12672,13 +12675,13 @@
         <v>796</v>
       </c>
       <c r="H339" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I339" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1906</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1906</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1906</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1906</v>
       </c>
@@ -12782,7 +12785,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1906</v>
       </c>
@@ -12808,7 +12811,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1906</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1906</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1906</v>
       </c>
@@ -12880,13 +12883,13 @@
         <v>961</v>
       </c>
       <c r="H347" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I347" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1906</v>
       </c>
@@ -12906,13 +12909,13 @@
         <v>962</v>
       </c>
       <c r="H348" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I348" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1906</v>
       </c>
@@ -12932,13 +12935,13 @@
         <v>963</v>
       </c>
       <c r="H349" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I349" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1906</v>
       </c>
@@ -12958,13 +12961,13 @@
         <v>820</v>
       </c>
       <c r="H350" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I350" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1906</v>
       </c>
@@ -12984,13 +12987,13 @@
         <v>761</v>
       </c>
       <c r="H351" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I351" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1906</v>
       </c>
@@ -13010,13 +13013,13 @@
         <v>964</v>
       </c>
       <c r="H352" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I352" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1906</v>
       </c>
@@ -13036,13 +13039,13 @@
         <v>965</v>
       </c>
       <c r="H353" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I353" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1906</v>
       </c>
@@ -13068,7 +13071,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1906</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1906</v>
       </c>
@@ -13120,7 +13123,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1906</v>
       </c>
@@ -13146,7 +13149,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1906</v>
       </c>
@@ -13172,7 +13175,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1906</v>
       </c>
@@ -13198,7 +13201,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1906</v>
       </c>
@@ -13230,7 +13233,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1906</v>
       </c>
@@ -13262,7 +13265,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1906</v>
       </c>
@@ -13288,7 +13291,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1906</v>
       </c>
@@ -13314,7 +13317,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1906</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1906</v>
       </c>
@@ -13366,7 +13369,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1906</v>
       </c>
@@ -13392,7 +13395,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1906</v>
       </c>
@@ -13418,7 +13421,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1906</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1906</v>
       </c>
@@ -13470,7 +13473,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1906</v>
       </c>
@@ -13496,7 +13499,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1906</v>
       </c>
@@ -13522,7 +13525,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1906</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1906</v>
       </c>

--- a/data-migration/xlsx_1900-/1906_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1906_Winter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EEBF9F-6385-49D4-91F9-6280F648B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A9FED-CF88-4302-93CC-2BD97F63EF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3071,9 +3071,6 @@
     <t>oswald_a</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3230,21 +3227,12 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>jordan_h</t>
   </si>
   <si>
     <t>bretscher_k</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3269,9 +3257,6 @@
     <t>oechsli_w</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>hitzigsteiner_h</t>
   </si>
   <si>
@@ -3284,9 +3269,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>Theologische Fakultät</t>
   </si>
   <si>
@@ -3338,9 +3320,6 @@
     <t>bachmann_g</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>ernst_p</t>
   </si>
   <si>
@@ -3390,6 +3369,27 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3733,11 +3733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G74" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="32.109375" customWidth="1"/>
@@ -3758,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F1" t="s">
         <v>375</v>
@@ -3770,7 +3770,7 @@
         <v>977</v>
       </c>
       <c r="I1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F2" t="s">
         <v>376</v>
@@ -3796,7 +3796,7 @@
         <v>978</v>
       </c>
       <c r="I2" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3810,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F3" t="s">
         <v>377</v>
@@ -3822,7 +3822,7 @@
         <v>979</v>
       </c>
       <c r="I3" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F4" t="s">
         <v>378</v>
@@ -3848,7 +3848,7 @@
         <v>979</v>
       </c>
       <c r="I4" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F5" t="s">
         <v>379</v>
@@ -3871,10 +3871,10 @@
         <v>748</v>
       </c>
       <c r="H5" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I5" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3888,7 +3888,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F6" t="s">
         <v>380</v>
@@ -3900,7 +3900,7 @@
         <v>980</v>
       </c>
       <c r="I6" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F7" t="s">
         <v>381</v>
@@ -3926,7 +3926,7 @@
         <v>980</v>
       </c>
       <c r="I7" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3940,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F8" t="s">
         <v>382</v>
@@ -3952,7 +3952,7 @@
         <v>980</v>
       </c>
       <c r="I8" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F9" t="s">
         <v>383</v>
@@ -3975,10 +3975,10 @@
         <v>752</v>
       </c>
       <c r="H9" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3992,7 +3992,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F10" t="s">
         <v>384</v>
@@ -4004,7 +4004,7 @@
         <v>980</v>
       </c>
       <c r="I10" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4018,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F11" t="s">
         <v>385</v>
@@ -4030,7 +4030,7 @@
         <v>981</v>
       </c>
       <c r="I11" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4044,7 +4044,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F12" t="s">
         <v>386</v>
@@ -4053,13 +4053,13 @@
         <v>755</v>
       </c>
       <c r="H12" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J12" t="s">
         <v>1091</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F13" t="s">
         <v>387</v>
@@ -4082,13 +4082,13 @@
         <v>756</v>
       </c>
       <c r="H13" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I13" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J13" t="s">
         <v>1091</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F14" t="s">
         <v>388</v>
@@ -4111,13 +4111,13 @@
         <v>757</v>
       </c>
       <c r="H14" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J14" t="s">
         <v>1091</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4131,7 +4131,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F15" t="s">
         <v>389</v>
@@ -4140,10 +4140,10 @@
         <v>758</v>
       </c>
       <c r="H15" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
       <c r="I15" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4157,7 +4157,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F16" t="s">
         <v>390</v>
@@ -4169,7 +4169,7 @@
         <v>977</v>
       </c>
       <c r="I16" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4183,7 +4183,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F17" t="s">
         <v>391</v>
@@ -4192,10 +4192,10 @@
         <v>760</v>
       </c>
       <c r="H17" t="s">
-        <v>1068</v>
+        <v>1115</v>
       </c>
       <c r="I17" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4209,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F18" t="s">
         <v>392</v>
@@ -4221,7 +4221,7 @@
         <v>977</v>
       </c>
       <c r="I18" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4235,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F19" t="s">
         <v>393</v>
@@ -4244,10 +4244,10 @@
         <v>762</v>
       </c>
       <c r="H19" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I19" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4261,7 +4261,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F20" t="s">
         <v>394</v>
@@ -4273,7 +4273,7 @@
         <v>977</v>
       </c>
       <c r="I20" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F21" t="s">
         <v>395</v>
@@ -4299,7 +4299,7 @@
         <v>981</v>
       </c>
       <c r="I21" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F22" t="s">
         <v>396</v>
@@ -4325,7 +4325,7 @@
         <v>979</v>
       </c>
       <c r="I22" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F23" t="s">
         <v>397</v>
@@ -4348,10 +4348,10 @@
         <v>765</v>
       </c>
       <c r="H23" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I23" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4365,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F24" t="s">
         <v>398</v>
@@ -4377,7 +4377,7 @@
         <v>980</v>
       </c>
       <c r="I24" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4391,7 +4391,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F25" t="s">
         <v>399</v>
@@ -4400,13 +4400,13 @@
         <v>767</v>
       </c>
       <c r="H25" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I25" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J25" t="s">
         <v>1091</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F26" t="s">
         <v>400</v>
@@ -4432,7 +4432,7 @@
         <v>977</v>
       </c>
       <c r="I26" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4446,7 +4446,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F27" t="s">
         <v>401</v>
@@ -4458,7 +4458,7 @@
         <v>977</v>
       </c>
       <c r="I27" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4472,7 +4472,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F28" t="s">
         <v>402</v>
@@ -4481,10 +4481,10 @@
         <v>769</v>
       </c>
       <c r="H28" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I28" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4498,7 +4498,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F29" t="s">
         <v>403</v>
@@ -4510,7 +4510,7 @@
         <v>984</v>
       </c>
       <c r="I29" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F30" t="s">
         <v>404</v>
@@ -4533,10 +4533,10 @@
         <v>770</v>
       </c>
       <c r="H30" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="I30" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4550,7 +4550,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F31" t="s">
         <v>405</v>
@@ -4559,10 +4559,10 @@
         <v>771</v>
       </c>
       <c r="H31" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="I31" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F32" t="s">
         <v>406</v>
@@ -4585,10 +4585,10 @@
         <v>772</v>
       </c>
       <c r="H32" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="I32" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -4602,7 +4602,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F33" t="s">
         <v>407</v>
@@ -4614,7 +4614,7 @@
         <v>985</v>
       </c>
       <c r="I33" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F34" t="s">
         <v>408</v>
@@ -4640,7 +4640,7 @@
         <v>986</v>
       </c>
       <c r="I34" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F35" t="s">
         <v>409</v>
@@ -4666,7 +4666,7 @@
         <v>986</v>
       </c>
       <c r="I35" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -4680,7 +4680,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F36" t="s">
         <v>410</v>
@@ -4692,7 +4692,7 @@
         <v>986</v>
       </c>
       <c r="I36" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -4706,7 +4706,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F37" t="s">
         <v>411</v>
@@ -4718,7 +4718,7 @@
         <v>986</v>
       </c>
       <c r="I37" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -4732,7 +4732,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F38" t="s">
         <v>412</v>
@@ -4744,7 +4744,7 @@
         <v>987</v>
       </c>
       <c r="I38" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F39" t="s">
         <v>413</v>
@@ -4770,7 +4770,7 @@
         <v>987</v>
       </c>
       <c r="I39" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -4784,7 +4784,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F40" t="s">
         <v>414</v>
@@ -4796,7 +4796,7 @@
         <v>987</v>
       </c>
       <c r="I40" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F41" t="s">
         <v>415</v>
@@ -4822,7 +4822,7 @@
         <v>988</v>
       </c>
       <c r="I41" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F42" t="s">
         <v>416</v>
@@ -4848,7 +4848,7 @@
         <v>989</v>
       </c>
       <c r="I42" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F43" t="s">
         <v>417</v>
@@ -4874,7 +4874,7 @@
         <v>984</v>
       </c>
       <c r="I43" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4888,10 +4888,10 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F44" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="G44" t="s">
         <v>784</v>
@@ -4900,13 +4900,13 @@
         <v>989</v>
       </c>
       <c r="I44" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="K44" t="s">
         <v>984</v>
       </c>
       <c r="L44" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F45" t="s">
         <v>418</v>
@@ -4932,7 +4932,7 @@
         <v>984</v>
       </c>
       <c r="I45" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4946,7 +4946,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F46" t="s">
         <v>419</v>
@@ -4958,7 +4958,7 @@
         <v>989</v>
       </c>
       <c r="I46" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4972,7 +4972,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F47" t="s">
         <v>420</v>
@@ -4981,13 +4981,13 @@
         <v>787</v>
       </c>
       <c r="H47" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="I47" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="J47" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F48" t="s">
         <v>421</v>
@@ -5013,7 +5013,7 @@
         <v>990</v>
       </c>
       <c r="I48" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5027,7 +5027,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F49" t="s">
         <v>422</v>
@@ -5039,7 +5039,7 @@
         <v>990</v>
       </c>
       <c r="I49" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F50" t="s">
         <v>423</v>
@@ -5062,13 +5062,13 @@
         <v>789</v>
       </c>
       <c r="H50" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="I50" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="J50" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,7 +5082,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F51" t="s">
         <v>424</v>
@@ -5094,7 +5094,7 @@
         <v>991</v>
       </c>
       <c r="I51" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,7 +5108,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F52" t="s">
         <v>425</v>
@@ -5120,7 +5120,7 @@
         <v>991</v>
       </c>
       <c r="I52" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F53" t="s">
         <v>426</v>
@@ -5146,7 +5146,7 @@
         <v>992</v>
       </c>
       <c r="I53" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5160,7 +5160,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F54" t="s">
         <v>427</v>
@@ -5172,7 +5172,7 @@
         <v>992</v>
       </c>
       <c r="I54" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F55" t="s">
         <v>428</v>
@@ -5195,10 +5195,10 @@
         <v>794</v>
       </c>
       <c r="H55" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="I55" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5212,7 +5212,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F56" t="s">
         <v>429</v>
@@ -5224,7 +5224,7 @@
         <v>994</v>
       </c>
       <c r="I56" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5238,7 +5238,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F57" t="s">
         <v>430</v>
@@ -5250,7 +5250,7 @@
         <v>984</v>
       </c>
       <c r="I57" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5264,7 +5264,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F58" t="s">
         <v>431</v>
@@ -5273,10 +5273,10 @@
         <v>797</v>
       </c>
       <c r="H58" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="I58" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5290,7 +5290,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F59" t="s">
         <v>432</v>
@@ -5299,10 +5299,10 @@
         <v>798</v>
       </c>
       <c r="H59" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="I59" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5316,7 +5316,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F60" t="s">
         <v>433</v>
@@ -5328,7 +5328,7 @@
         <v>986</v>
       </c>
       <c r="I60" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5342,7 +5342,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F61" t="s">
         <v>434</v>
@@ -5354,7 +5354,7 @@
         <v>986</v>
       </c>
       <c r="I61" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5368,7 +5368,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F62" t="s">
         <v>435</v>
@@ -5380,7 +5380,7 @@
         <v>987</v>
       </c>
       <c r="I62" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5394,7 +5394,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F63" t="s">
         <v>436</v>
@@ -5406,7 +5406,7 @@
         <v>988</v>
       </c>
       <c r="I63" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5420,7 +5420,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F64" t="s">
         <v>437</v>
@@ -5432,7 +5432,7 @@
         <v>984</v>
       </c>
       <c r="I64" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5446,7 +5446,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F65" t="s">
         <v>438</v>
@@ -5458,7 +5458,7 @@
         <v>990</v>
       </c>
       <c r="I65" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5472,7 +5472,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F66" t="s">
         <v>439</v>
@@ -5484,7 +5484,7 @@
         <v>989</v>
       </c>
       <c r="I66" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5498,7 +5498,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F67" t="s">
         <v>440</v>
@@ -5510,7 +5510,7 @@
         <v>991</v>
       </c>
       <c r="I67" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5524,7 +5524,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F68" t="s">
         <v>440</v>
@@ -5536,7 +5536,7 @@
         <v>992</v>
       </c>
       <c r="I68" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F69" t="s">
         <v>441</v>
@@ -5562,7 +5562,7 @@
         <v>994</v>
       </c>
       <c r="I69" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5576,7 +5576,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F70" t="s">
         <v>442</v>
@@ -5585,10 +5585,10 @@
         <v>807</v>
       </c>
       <c r="H70" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="I70" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5602,7 +5602,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F71" t="s">
         <v>443</v>
@@ -5614,13 +5614,13 @@
         <v>996</v>
       </c>
       <c r="I71" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="K71" t="s">
         <v>995</v>
       </c>
       <c r="L71" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5634,7 +5634,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F72" t="s">
         <v>444</v>
@@ -5646,7 +5646,7 @@
         <v>996</v>
       </c>
       <c r="I72" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F73" t="s">
         <v>445</v>
@@ -5672,7 +5672,7 @@
         <v>996</v>
       </c>
       <c r="I73" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5686,7 +5686,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F74" t="s">
         <v>446</v>
@@ -5698,7 +5698,7 @@
         <v>995</v>
       </c>
       <c r="I74" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5712,7 +5712,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F75" t="s">
         <v>447</v>
@@ -5721,7 +5721,7 @@
         <v>995</v>
       </c>
       <c r="I75" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5735,7 +5735,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F76" t="s">
         <v>448</v>
@@ -5747,7 +5747,7 @@
         <v>995</v>
       </c>
       <c r="I76" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5761,7 +5761,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F77" t="s">
         <v>449</v>
@@ -5773,7 +5773,7 @@
         <v>997</v>
       </c>
       <c r="I77" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5787,7 +5787,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F78" t="s">
         <v>450</v>
@@ -5796,10 +5796,10 @@
         <v>813</v>
       </c>
       <c r="H78" t="s">
-        <v>1069</v>
+        <v>1114</v>
       </c>
       <c r="I78" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F79" t="s">
         <v>451</v>
@@ -5822,10 +5822,10 @@
         <v>814</v>
       </c>
       <c r="H79" t="s">
-        <v>1069</v>
+        <v>1114</v>
       </c>
       <c r="I79" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5839,7 +5839,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F80" t="s">
         <v>452</v>
@@ -5851,7 +5851,7 @@
         <v>998</v>
       </c>
       <c r="I80" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -5865,7 +5865,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F81" t="s">
         <v>453</v>
@@ -5877,7 +5877,7 @@
         <v>998</v>
       </c>
       <c r="I81" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -5891,7 +5891,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F82" t="s">
         <v>454</v>
@@ -5903,7 +5903,7 @@
         <v>998</v>
       </c>
       <c r="I82" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -5917,7 +5917,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F83" t="s">
         <v>455</v>
@@ -5929,7 +5929,7 @@
         <v>999</v>
       </c>
       <c r="I83" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -5943,7 +5943,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F84" t="s">
         <v>456</v>
@@ -5955,7 +5955,7 @@
         <v>999</v>
       </c>
       <c r="I84" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -5969,7 +5969,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F85" t="s">
         <v>457</v>
@@ -5981,7 +5981,7 @@
         <v>999</v>
       </c>
       <c r="I85" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -5995,7 +5995,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F86" t="s">
         <v>458</v>
@@ -6007,7 +6007,7 @@
         <v>999</v>
       </c>
       <c r="I86" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F87" t="s">
         <v>459</v>
@@ -6033,7 +6033,7 @@
         <v>1000</v>
       </c>
       <c r="I87" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F88" t="s">
         <v>460</v>
@@ -6056,13 +6056,13 @@
         <v>817</v>
       </c>
       <c r="H88" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="I88" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J88" t="s">
         <v>1091</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6076,7 +6076,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F89" t="s">
         <v>461</v>
@@ -6085,13 +6085,13 @@
         <v>818</v>
       </c>
       <c r="H89" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="I89" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J89" t="s">
         <v>1091</v>
-      </c>
-      <c r="J89" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6105,7 +6105,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F90" t="s">
         <v>462</v>
@@ -6114,10 +6114,10 @@
         <v>761</v>
       </c>
       <c r="H90" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="I90" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6131,7 +6131,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F91" t="s">
         <v>463</v>
@@ -6140,10 +6140,10 @@
         <v>819</v>
       </c>
       <c r="H91" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="I91" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F92" t="s">
         <v>464</v>
@@ -6166,10 +6166,10 @@
         <v>820</v>
       </c>
       <c r="H92" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="I92" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6183,7 +6183,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F93" t="s">
         <v>465</v>
@@ -6192,10 +6192,10 @@
         <v>821</v>
       </c>
       <c r="H93" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="I93" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6209,7 +6209,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F94" t="s">
         <v>466</v>
@@ -6221,7 +6221,7 @@
         <v>1001</v>
       </c>
       <c r="I94" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6235,7 +6235,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F95" t="s">
         <v>467</v>
@@ -6244,10 +6244,10 @@
         <v>823</v>
       </c>
       <c r="H95" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I95" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F96" t="s">
         <v>468</v>
@@ -6270,10 +6270,10 @@
         <v>824</v>
       </c>
       <c r="H96" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I96" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -6287,7 +6287,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F97" t="s">
         <v>469</v>
@@ -6296,10 +6296,10 @@
         <v>825</v>
       </c>
       <c r="H97" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I97" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6313,7 +6313,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F98" t="s">
         <v>470</v>
@@ -6322,10 +6322,10 @@
         <v>826</v>
       </c>
       <c r="H98" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I98" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6339,7 +6339,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F99" t="s">
         <v>471</v>
@@ -6348,10 +6348,10 @@
         <v>793</v>
       </c>
       <c r="H99" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I99" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F100" t="s">
         <v>445</v>
@@ -6374,10 +6374,10 @@
         <v>810</v>
       </c>
       <c r="H100" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="I100" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6391,7 +6391,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F101" t="s">
         <v>472</v>
@@ -6400,10 +6400,10 @@
         <v>827</v>
       </c>
       <c r="H101" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="I101" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -6417,7 +6417,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F102" t="s">
         <v>473</v>
@@ -6426,10 +6426,10 @@
         <v>828</v>
       </c>
       <c r="H102" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="I102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -6443,7 +6443,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F103" t="s">
         <v>474</v>
@@ -6455,7 +6455,7 @@
         <v>1003</v>
       </c>
       <c r="I103" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6469,7 +6469,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F104" t="s">
         <v>475</v>
@@ -6481,7 +6481,7 @@
         <v>1003</v>
       </c>
       <c r="I104" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6495,7 +6495,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F105" t="s">
         <v>476</v>
@@ -6507,7 +6507,7 @@
         <v>1003</v>
       </c>
       <c r="I105" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6521,7 +6521,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F106" t="s">
         <v>477</v>
@@ -6533,7 +6533,7 @@
         <v>1003</v>
       </c>
       <c r="I106" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -6547,7 +6547,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F107" t="s">
         <v>478</v>
@@ -6559,7 +6559,7 @@
         <v>1004</v>
       </c>
       <c r="I107" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F108" t="s">
         <v>479</v>
@@ -6585,7 +6585,7 @@
         <v>1004</v>
       </c>
       <c r="I108" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -6599,7 +6599,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F109" t="s">
         <v>480</v>
@@ -6608,10 +6608,10 @@
         <v>833</v>
       </c>
       <c r="H109" t="s">
-        <v>1069</v>
+        <v>1114</v>
       </c>
       <c r="I109" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F110" t="s">
         <v>481</v>
@@ -6634,10 +6634,10 @@
         <v>834</v>
       </c>
       <c r="H110" t="s">
-        <v>1069</v>
+        <v>1114</v>
       </c>
       <c r="I110" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -6651,7 +6651,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F111" t="s">
         <v>482</v>
@@ -6663,7 +6663,7 @@
         <v>1005</v>
       </c>
       <c r="I111" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F112" t="s">
         <v>483</v>
@@ -6689,7 +6689,7 @@
         <v>1005</v>
       </c>
       <c r="I112" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -6703,7 +6703,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F113" t="s">
         <v>484</v>
@@ -6715,7 +6715,7 @@
         <v>1005</v>
       </c>
       <c r="I113" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -6729,7 +6729,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F114" t="s">
         <v>485</v>
@@ -6741,7 +6741,7 @@
         <v>1006</v>
       </c>
       <c r="I114" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -6755,7 +6755,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F115" t="s">
         <v>486</v>
@@ -6767,7 +6767,7 @@
         <v>1007</v>
       </c>
       <c r="I115" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F116" t="s">
         <v>487</v>
@@ -6793,7 +6793,7 @@
         <v>1007</v>
       </c>
       <c r="I116" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -6807,7 +6807,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F117" t="s">
         <v>488</v>
@@ -6819,7 +6819,7 @@
         <v>1008</v>
       </c>
       <c r="I117" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F118" t="s">
         <v>489</v>
@@ -6842,13 +6842,13 @@
         <v>839</v>
       </c>
       <c r="H118" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="I118" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J118" t="s">
         <v>1091</v>
-      </c>
-      <c r="J118" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -6862,7 +6862,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F119" t="s">
         <v>490</v>
@@ -6871,10 +6871,10 @@
         <v>840</v>
       </c>
       <c r="H119" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="I119" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -6888,7 +6888,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F120" t="s">
         <v>491</v>
@@ -6900,7 +6900,7 @@
         <v>1009</v>
       </c>
       <c r="I120" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -6914,7 +6914,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F121" t="s">
         <v>492</v>
@@ -6926,7 +6926,7 @@
         <v>1009</v>
       </c>
       <c r="I121" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -6940,7 +6940,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F122" t="s">
         <v>493</v>
@@ -6949,10 +6949,10 @@
         <v>757</v>
       </c>
       <c r="H122" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="I122" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F123" t="s">
         <v>494</v>
@@ -6975,10 +6975,10 @@
         <v>841</v>
       </c>
       <c r="H123" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="I123" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -6992,7 +6992,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F124" t="s">
         <v>495</v>
@@ -7001,10 +7001,10 @@
         <v>761</v>
       </c>
       <c r="H124" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="I124" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7018,7 +7018,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F125" t="s">
         <v>496</v>
@@ -7027,10 +7027,10 @@
         <v>840</v>
       </c>
       <c r="H125" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="I125" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -7044,7 +7044,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F126" t="s">
         <v>497</v>
@@ -7056,7 +7056,7 @@
         <v>1011</v>
       </c>
       <c r="I126" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -7070,7 +7070,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F127" t="s">
         <v>498</v>
@@ -7079,10 +7079,10 @@
         <v>842</v>
       </c>
       <c r="H127" t="s">
-        <v>1012</v>
+        <v>1113</v>
       </c>
       <c r="I127" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -7096,7 +7096,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F128" t="s">
         <v>499</v>
@@ -7105,10 +7105,10 @@
         <v>843</v>
       </c>
       <c r="H128" t="s">
-        <v>1012</v>
+        <v>1113</v>
       </c>
       <c r="I128" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7122,7 +7122,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F129" t="s">
         <v>500</v>
@@ -7131,10 +7131,10 @@
         <v>844</v>
       </c>
       <c r="H129" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I129" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -7148,7 +7148,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F130" t="s">
         <v>501</v>
@@ -7157,10 +7157,10 @@
         <v>845</v>
       </c>
       <c r="H130" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I130" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F131" t="s">
         <v>502</v>
@@ -7183,10 +7183,10 @@
         <v>846</v>
       </c>
       <c r="H131" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I131" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -7200,7 +7200,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F132" t="s">
         <v>503</v>
@@ -7209,16 +7209,16 @@
         <v>757</v>
       </c>
       <c r="H132" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="I132" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="K132" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="L132" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -7232,7 +7232,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F133" t="s">
         <v>504</v>
@@ -7241,10 +7241,10 @@
         <v>820</v>
       </c>
       <c r="H133" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I133" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -7258,7 +7258,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F134" t="s">
         <v>505</v>
@@ -7267,10 +7267,10 @@
         <v>757</v>
       </c>
       <c r="H134" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I134" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -7284,19 +7284,19 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F135" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="G135" t="s">
         <v>757</v>
       </c>
       <c r="H135" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I135" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -7310,7 +7310,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F136" t="s">
         <v>506</v>
@@ -7319,10 +7319,10 @@
         <v>847</v>
       </c>
       <c r="H136" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I136" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -7336,7 +7336,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F137" t="s">
         <v>507</v>
@@ -7345,10 +7345,10 @@
         <v>848</v>
       </c>
       <c r="H137" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I137" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -7362,7 +7362,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F138" t="s">
         <v>508</v>
@@ -7371,10 +7371,10 @@
         <v>849</v>
       </c>
       <c r="H138" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I138" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -7388,7 +7388,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F139" t="s">
         <v>509</v>
@@ -7397,10 +7397,10 @@
         <v>798</v>
       </c>
       <c r="H139" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I139" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -7414,7 +7414,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F140" t="s">
         <v>510</v>
@@ -7423,10 +7423,10 @@
         <v>745</v>
       </c>
       <c r="H140" t="s">
-        <v>1083</v>
+        <v>1112</v>
       </c>
       <c r="I140" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -7440,7 +7440,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F141" t="s">
         <v>511</v>
@@ -7449,10 +7449,10 @@
         <v>757</v>
       </c>
       <c r="H141" t="s">
-        <v>1083</v>
+        <v>1112</v>
       </c>
       <c r="I141" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F142" t="s">
         <v>512</v>
@@ -7475,10 +7475,10 @@
         <v>850</v>
       </c>
       <c r="H142" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I142" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F143" t="s">
         <v>513</v>
@@ -7501,10 +7501,10 @@
         <v>761</v>
       </c>
       <c r="H143" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I143" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -7518,7 +7518,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F144" t="s">
         <v>514</v>
@@ -7527,10 +7527,10 @@
         <v>851</v>
       </c>
       <c r="H144" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I144" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7544,7 +7544,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F145" t="s">
         <v>515</v>
@@ -7553,10 +7553,10 @@
         <v>852</v>
       </c>
       <c r="H145" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I145" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7570,7 +7570,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F146" t="s">
         <v>516</v>
@@ -7579,10 +7579,10 @@
         <v>757</v>
       </c>
       <c r="H146" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="I146" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7596,7 +7596,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F147" t="s">
         <v>517</v>
@@ -7605,10 +7605,10 @@
         <v>745</v>
       </c>
       <c r="H147" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="I147" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7622,7 +7622,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F148" t="s">
         <v>518</v>
@@ -7631,10 +7631,10 @@
         <v>853</v>
       </c>
       <c r="H148" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="I148" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7648,7 +7648,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F149" t="s">
         <v>519</v>
@@ -7657,10 +7657,10 @@
         <v>757</v>
       </c>
       <c r="H149" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="I149" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7674,7 +7674,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F150" t="s">
         <v>520</v>
@@ -7683,10 +7683,10 @@
         <v>854</v>
       </c>
       <c r="H150" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I150" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7700,7 +7700,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F151" t="s">
         <v>521</v>
@@ -7709,10 +7709,10 @@
         <v>855</v>
       </c>
       <c r="H151" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I151" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7726,7 +7726,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F152" t="s">
         <v>522</v>
@@ -7735,10 +7735,10 @@
         <v>761</v>
       </c>
       <c r="H152" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I152" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7752,7 +7752,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F153" t="s">
         <v>523</v>
@@ -7761,10 +7761,10 @@
         <v>757</v>
       </c>
       <c r="H153" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I153" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7778,7 +7778,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F154" t="s">
         <v>524</v>
@@ -7787,10 +7787,10 @@
         <v>745</v>
       </c>
       <c r="H154" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I154" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7804,7 +7804,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F155" t="s">
         <v>525</v>
@@ -7813,10 +7813,10 @@
         <v>757</v>
       </c>
       <c r="H155" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I155" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7830,7 +7830,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F156" t="s">
         <v>526</v>
@@ -7839,10 +7839,10 @@
         <v>810</v>
       </c>
       <c r="H156" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I156" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7856,7 +7856,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F157" t="s">
         <v>527</v>
@@ -7865,10 +7865,10 @@
         <v>856</v>
       </c>
       <c r="H157" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I157" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7882,7 +7882,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F158" t="s">
         <v>528</v>
@@ -7891,10 +7891,10 @@
         <v>825</v>
       </c>
       <c r="H158" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I158" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7908,7 +7908,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F159" t="s">
         <v>529</v>
@@ -7917,10 +7917,10 @@
         <v>857</v>
       </c>
       <c r="H159" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I159" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -7934,7 +7934,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F160" t="s">
         <v>530</v>
@@ -7943,10 +7943,10 @@
         <v>757</v>
       </c>
       <c r="H160" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="I160" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7960,7 +7960,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F161" t="s">
         <v>531</v>
@@ -7969,10 +7969,10 @@
         <v>761</v>
       </c>
       <c r="H161" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="I161" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -7986,7 +7986,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F162" t="s">
         <v>532</v>
@@ -7995,10 +7995,10 @@
         <v>858</v>
       </c>
       <c r="H162" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I162" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8012,7 +8012,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F163" t="s">
         <v>533</v>
@@ -8021,10 +8021,10 @@
         <v>859</v>
       </c>
       <c r="H163" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I163" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8038,7 +8038,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F164" t="s">
         <v>534</v>
@@ -8047,10 +8047,10 @@
         <v>860</v>
       </c>
       <c r="H164" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I164" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8064,7 +8064,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F165" t="s">
         <v>535</v>
@@ -8073,10 +8073,10 @@
         <v>781</v>
       </c>
       <c r="H165" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I165" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8090,7 +8090,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F166" t="s">
         <v>536</v>
@@ -8099,10 +8099,10 @@
         <v>861</v>
       </c>
       <c r="H166" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I166" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8116,7 +8116,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F167" t="s">
         <v>537</v>
@@ -8125,10 +8125,10 @@
         <v>862</v>
       </c>
       <c r="H167" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I167" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8142,7 +8142,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F168" t="s">
         <v>538</v>
@@ -8151,10 +8151,10 @@
         <v>863</v>
       </c>
       <c r="H168" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I168" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8168,7 +8168,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F169" t="s">
         <v>539</v>
@@ -8177,10 +8177,10 @@
         <v>864</v>
       </c>
       <c r="H169" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="I169" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8194,7 +8194,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F170" t="s">
         <v>540</v>
@@ -8203,10 +8203,10 @@
         <v>865</v>
       </c>
       <c r="H170" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="I170" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8220,7 +8220,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F171" t="s">
         <v>541</v>
@@ -8229,10 +8229,10 @@
         <v>761</v>
       </c>
       <c r="H171" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I171" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8246,7 +8246,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F172" t="s">
         <v>542</v>
@@ -8255,10 +8255,10 @@
         <v>866</v>
       </c>
       <c r="H172" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I172" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8272,7 +8272,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F173" t="s">
         <v>543</v>
@@ -8281,10 +8281,10 @@
         <v>867</v>
       </c>
       <c r="H173" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I173" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8298,7 +8298,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F174" t="s">
         <v>544</v>
@@ -8307,10 +8307,10 @@
         <v>868</v>
       </c>
       <c r="H174" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I174" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8324,7 +8324,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F175" t="s">
         <v>545</v>
@@ -8333,10 +8333,10 @@
         <v>869</v>
       </c>
       <c r="H175" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I175" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F176" t="s">
         <v>546</v>
@@ -8359,10 +8359,10 @@
         <v>870</v>
       </c>
       <c r="H176" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I176" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8376,7 +8376,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F177" t="s">
         <v>547</v>
@@ -8385,10 +8385,10 @@
         <v>871</v>
       </c>
       <c r="H177" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I177" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8402,7 +8402,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F178" t="s">
         <v>548</v>
@@ -8411,10 +8411,10 @@
         <v>872</v>
       </c>
       <c r="H178" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I178" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8428,7 +8428,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F179" t="s">
         <v>549</v>
@@ -8437,13 +8437,13 @@
         <v>873</v>
       </c>
       <c r="H179" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I179" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J179" t="s">
         <v>1091</v>
-      </c>
-      <c r="J179" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8457,7 +8457,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F180" t="s">
         <v>550</v>
@@ -8466,13 +8466,13 @@
         <v>874</v>
       </c>
       <c r="H180" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I180" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J180" t="s">
         <v>1091</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8486,7 +8486,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F181" t="s">
         <v>551</v>
@@ -8495,13 +8495,13 @@
         <v>875</v>
       </c>
       <c r="H181" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I181" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J181" t="s">
         <v>1091</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8515,7 +8515,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F182" t="s">
         <v>552</v>
@@ -8524,13 +8524,13 @@
         <v>876</v>
       </c>
       <c r="H182" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I182" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J182" t="s">
         <v>1091</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8544,7 +8544,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F183" t="s">
         <v>553</v>
@@ -8553,13 +8553,13 @@
         <v>877</v>
       </c>
       <c r="H183" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I183" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J183" t="s">
         <v>1091</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8573,7 +8573,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F184" t="s">
         <v>554</v>
@@ -8582,10 +8582,10 @@
         <v>878</v>
       </c>
       <c r="H184" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I184" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8599,7 +8599,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F185" t="s">
         <v>555</v>
@@ -8608,10 +8608,10 @@
         <v>879</v>
       </c>
       <c r="H185" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I185" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8625,7 +8625,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F186" t="s">
         <v>556</v>
@@ -8634,10 +8634,10 @@
         <v>880</v>
       </c>
       <c r="H186" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I186" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8651,7 +8651,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F187" t="s">
         <v>557</v>
@@ -8660,10 +8660,10 @@
         <v>881</v>
       </c>
       <c r="H187" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I187" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8677,7 +8677,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F188" t="s">
         <v>558</v>
@@ -8686,10 +8686,10 @@
         <v>810</v>
       </c>
       <c r="H188" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I188" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8703,7 +8703,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F189" t="s">
         <v>559</v>
@@ -8712,10 +8712,10 @@
         <v>882</v>
       </c>
       <c r="H189" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I189" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8729,7 +8729,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F190" t="s">
         <v>560</v>
@@ -8738,10 +8738,10 @@
         <v>883</v>
       </c>
       <c r="H190" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I190" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8755,7 +8755,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F191" t="s">
         <v>561</v>
@@ -8764,10 +8764,10 @@
         <v>757</v>
       </c>
       <c r="H191" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I191" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8781,7 +8781,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F192" t="s">
         <v>562</v>
@@ -8790,10 +8790,10 @@
         <v>757</v>
       </c>
       <c r="H192" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I192" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8807,7 +8807,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F193" t="s">
         <v>563</v>
@@ -8816,10 +8816,10 @@
         <v>761</v>
       </c>
       <c r="H193" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I193" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8833,7 +8833,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F194" t="s">
         <v>564</v>
@@ -8842,10 +8842,10 @@
         <v>884</v>
       </c>
       <c r="H194" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I194" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8859,7 +8859,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F195" t="s">
         <v>565</v>
@@ -8868,10 +8868,10 @@
         <v>885</v>
       </c>
       <c r="H195" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I195" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F196" t="s">
         <v>566</v>
@@ -8894,10 +8894,10 @@
         <v>886</v>
       </c>
       <c r="H196" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I196" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8911,7 +8911,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F197" t="s">
         <v>567</v>
@@ -8920,10 +8920,10 @@
         <v>887</v>
       </c>
       <c r="H197" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I197" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -8937,7 +8937,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F198" t="s">
         <v>568</v>
@@ -8946,10 +8946,10 @@
         <v>888</v>
       </c>
       <c r="H198" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I198" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -8963,7 +8963,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F199" t="s">
         <v>569</v>
@@ -8972,10 +8972,10 @@
         <v>757</v>
       </c>
       <c r="H199" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I199" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -8989,7 +8989,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F200" t="s">
         <v>570</v>
@@ -8998,10 +8998,10 @@
         <v>761</v>
       </c>
       <c r="H200" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I200" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9015,7 +9015,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F201" t="s">
         <v>571</v>
@@ -9024,10 +9024,10 @@
         <v>889</v>
       </c>
       <c r="H201" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I201" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9041,7 +9041,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F202" t="s">
         <v>572</v>
@@ -9050,10 +9050,10 @@
         <v>890</v>
       </c>
       <c r="H202" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I202" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9067,7 +9067,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F203" t="s">
         <v>573</v>
@@ -9076,10 +9076,10 @@
         <v>801</v>
       </c>
       <c r="H203" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I203" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9093,7 +9093,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F204" t="s">
         <v>574</v>
@@ -9102,10 +9102,10 @@
         <v>891</v>
       </c>
       <c r="H204" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I204" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9119,7 +9119,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F205" t="s">
         <v>575</v>
@@ -9128,10 +9128,10 @@
         <v>892</v>
       </c>
       <c r="H205" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I205" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9145,7 +9145,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F206" t="s">
         <v>576</v>
@@ -9154,10 +9154,10 @@
         <v>893</v>
       </c>
       <c r="H206" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I206" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -9171,7 +9171,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F207" t="s">
         <v>577</v>
@@ -9180,10 +9180,10 @@
         <v>777</v>
       </c>
       <c r="H207" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I207" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -9197,7 +9197,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F208" t="s">
         <v>578</v>
@@ -9206,10 +9206,10 @@
         <v>894</v>
       </c>
       <c r="H208" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I208" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9223,7 +9223,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F209" t="s">
         <v>579</v>
@@ -9232,10 +9232,10 @@
         <v>895</v>
       </c>
       <c r="H209" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I209" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F210" t="s">
         <v>580</v>
@@ -9258,10 +9258,10 @@
         <v>789</v>
       </c>
       <c r="H210" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I210" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -9275,7 +9275,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F211" t="s">
         <v>581</v>
@@ -9284,10 +9284,10 @@
         <v>757</v>
       </c>
       <c r="H211" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I211" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -9301,7 +9301,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F212" t="s">
         <v>582</v>
@@ -9310,10 +9310,10 @@
         <v>896</v>
       </c>
       <c r="H212" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I212" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -9327,7 +9327,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F213" t="s">
         <v>583</v>
@@ -9339,7 +9339,7 @@
         <v>982</v>
       </c>
       <c r="I213" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -9353,7 +9353,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F214" t="s">
         <v>584</v>
@@ -9365,7 +9365,7 @@
         <v>979</v>
       </c>
       <c r="I214" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F215" t="s">
         <v>585</v>
@@ -9391,7 +9391,7 @@
         <v>979</v>
       </c>
       <c r="I215" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -9405,7 +9405,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F216" t="s">
         <v>586</v>
@@ -9414,10 +9414,10 @@
         <v>745</v>
       </c>
       <c r="H216" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I216" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -9431,7 +9431,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F217" t="s">
         <v>587</v>
@@ -9440,10 +9440,10 @@
         <v>757</v>
       </c>
       <c r="H217" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I217" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -9457,7 +9457,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F218" t="s">
         <v>588</v>
@@ -9466,10 +9466,10 @@
         <v>761</v>
       </c>
       <c r="H218" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I218" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -9483,7 +9483,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F219" t="s">
         <v>589</v>
@@ -9492,10 +9492,10 @@
         <v>761</v>
       </c>
       <c r="H219" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I219" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9509,7 +9509,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F220" t="s">
         <v>590</v>
@@ -9518,10 +9518,10 @@
         <v>822</v>
       </c>
       <c r="H220" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I220" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -9535,7 +9535,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F221" t="s">
         <v>591</v>
@@ -9544,13 +9544,13 @@
         <v>898</v>
       </c>
       <c r="H221" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I221" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="J221" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9564,7 +9564,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F222" t="s">
         <v>592</v>
@@ -9573,13 +9573,13 @@
         <v>899</v>
       </c>
       <c r="H222" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I222" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="J222" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -9593,7 +9593,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F223" t="s">
         <v>593</v>
@@ -9605,7 +9605,7 @@
         <v>983</v>
       </c>
       <c r="I223" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -9619,7 +9619,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F224" t="s">
         <v>594</v>
@@ -9628,10 +9628,10 @@
         <v>820</v>
       </c>
       <c r="H224" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I224" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9645,7 +9645,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F225" t="s">
         <v>595</v>
@@ -9657,7 +9657,7 @@
         <v>983</v>
       </c>
       <c r="I225" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9671,7 +9671,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F226" t="s">
         <v>596</v>
@@ -9683,7 +9683,7 @@
         <v>983</v>
       </c>
       <c r="I226" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9697,7 +9697,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F227" t="s">
         <v>597</v>
@@ -9709,7 +9709,7 @@
         <v>983</v>
       </c>
       <c r="I227" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9723,7 +9723,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F228" t="s">
         <v>598</v>
@@ -9732,10 +9732,10 @@
         <v>901</v>
       </c>
       <c r="H228" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I228" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9749,7 +9749,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F229" t="s">
         <v>599</v>
@@ -9758,10 +9758,10 @@
         <v>902</v>
       </c>
       <c r="H229" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I229" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9775,7 +9775,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F230" t="s">
         <v>600</v>
@@ -9784,10 +9784,10 @@
         <v>903</v>
       </c>
       <c r="H230" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I230" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9801,7 +9801,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F231" t="s">
         <v>601</v>
@@ -9810,10 +9810,10 @@
         <v>763</v>
       </c>
       <c r="H231" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="I231" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9827,7 +9827,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F232" t="s">
         <v>602</v>
@@ -9836,10 +9836,10 @@
         <v>820</v>
       </c>
       <c r="H232" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="I232" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9853,7 +9853,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F233" t="s">
         <v>603</v>
@@ -9862,10 +9862,10 @@
         <v>789</v>
       </c>
       <c r="H233" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I233" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9879,7 +9879,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F234" t="s">
         <v>604</v>
@@ -9888,10 +9888,10 @@
         <v>904</v>
       </c>
       <c r="H234" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I234" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9905,7 +9905,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F235" t="s">
         <v>605</v>
@@ -9914,13 +9914,13 @@
         <v>905</v>
       </c>
       <c r="H235" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="I235" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="J235" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9934,7 +9934,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F236" t="s">
         <v>606</v>
@@ -9943,10 +9943,10 @@
         <v>906</v>
       </c>
       <c r="H236" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I236" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -9960,7 +9960,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F237" t="s">
         <v>607</v>
@@ -9972,7 +9972,7 @@
         <v>993</v>
       </c>
       <c r="I237" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -9986,7 +9986,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F238" t="s">
         <v>608</v>
@@ -9998,7 +9998,7 @@
         <v>993</v>
       </c>
       <c r="I238" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10012,7 +10012,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F239" t="s">
         <v>609</v>
@@ -10024,7 +10024,7 @@
         <v>993</v>
       </c>
       <c r="I239" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10038,7 +10038,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F240" t="s">
         <v>610</v>
@@ -10047,10 +10047,10 @@
         <v>910</v>
       </c>
       <c r="H240" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I240" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10064,7 +10064,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F241" t="s">
         <v>611</v>
@@ -10073,10 +10073,10 @@
         <v>911</v>
       </c>
       <c r="H241" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I241" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10090,7 +10090,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F242" t="s">
         <v>612</v>
@@ -10099,10 +10099,10 @@
         <v>912</v>
       </c>
       <c r="H242" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I242" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10116,7 +10116,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F243" t="s">
         <v>613</v>
@@ -10125,10 +10125,10 @@
         <v>757</v>
       </c>
       <c r="H243" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I243" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10142,7 +10142,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F244" t="s">
         <v>614</v>
@@ -10151,10 +10151,10 @@
         <v>906</v>
       </c>
       <c r="H244" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I244" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10168,7 +10168,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F245" t="s">
         <v>615</v>
@@ -10177,10 +10177,10 @@
         <v>840</v>
       </c>
       <c r="H245" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I245" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10194,7 +10194,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F246" t="s">
         <v>616</v>
@@ -10203,10 +10203,10 @@
         <v>913</v>
       </c>
       <c r="H246" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I246" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10220,7 +10220,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F247" t="s">
         <v>617</v>
@@ -10232,7 +10232,7 @@
         <v>993</v>
       </c>
       <c r="I247" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10246,7 +10246,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F248" t="s">
         <v>618</v>
@@ -10258,7 +10258,7 @@
         <v>993</v>
       </c>
       <c r="I248" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10272,7 +10272,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F249" t="s">
         <v>619</v>
@@ -10281,10 +10281,10 @@
         <v>915</v>
       </c>
       <c r="H249" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I249" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10298,7 +10298,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F250" t="s">
         <v>620</v>
@@ -10307,10 +10307,10 @@
         <v>916</v>
       </c>
       <c r="H250" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I250" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10324,7 +10324,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F251" t="s">
         <v>621</v>
@@ -10333,10 +10333,10 @@
         <v>917</v>
       </c>
       <c r="H251" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="I251" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10350,7 +10350,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F252" t="s">
         <v>622</v>
@@ -10359,10 +10359,10 @@
         <v>797</v>
       </c>
       <c r="H252" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I252" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10376,7 +10376,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F253" t="s">
         <v>623</v>
@@ -10385,10 +10385,10 @@
         <v>918</v>
       </c>
       <c r="H253" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I253" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10405,7 +10405,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F254" t="s">
         <v>624</v>
@@ -10414,10 +10414,10 @@
         <v>919</v>
       </c>
       <c r="H254" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I254" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10431,7 +10431,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F255" t="s">
         <v>625</v>
@@ -10440,10 +10440,10 @@
         <v>920</v>
       </c>
       <c r="H255" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I255" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10457,7 +10457,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F256" t="s">
         <v>626</v>
@@ -10466,10 +10466,10 @@
         <v>921</v>
       </c>
       <c r="H256" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I256" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -10483,7 +10483,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F257" t="s">
         <v>627</v>
@@ -10492,10 +10492,10 @@
         <v>922</v>
       </c>
       <c r="H257" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I257" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -10509,7 +10509,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F258" t="s">
         <v>628</v>
@@ -10518,10 +10518,10 @@
         <v>923</v>
       </c>
       <c r="H258" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I258" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -10535,7 +10535,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F259" t="s">
         <v>629</v>
@@ -10544,10 +10544,10 @@
         <v>924</v>
       </c>
       <c r="H259" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I259" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -10561,7 +10561,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F260" t="s">
         <v>630</v>
@@ -10570,13 +10570,13 @@
         <v>925</v>
       </c>
       <c r="H260" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I260" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J260" t="s">
         <v>1091</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -10590,7 +10590,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F261" t="s">
         <v>631</v>
@@ -10599,10 +10599,10 @@
         <v>926</v>
       </c>
       <c r="H261" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I261" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -10616,7 +10616,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F262" t="s">
         <v>632</v>
@@ -10625,10 +10625,10 @@
         <v>927</v>
       </c>
       <c r="H262" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I262" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -10642,7 +10642,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F263" t="s">
         <v>633</v>
@@ -10651,13 +10651,13 @@
         <v>928</v>
       </c>
       <c r="H263" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I263" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J263" t="s">
         <v>1091</v>
-      </c>
-      <c r="J263" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -10671,7 +10671,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F264" t="s">
         <v>634</v>
@@ -10680,10 +10680,10 @@
         <v>901</v>
       </c>
       <c r="H264" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I264" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -10697,7 +10697,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F265" t="s">
         <v>635</v>
@@ -10706,13 +10706,13 @@
         <v>929</v>
       </c>
       <c r="H265" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I265" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J265" t="s">
         <v>1091</v>
-      </c>
-      <c r="J265" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -10726,7 +10726,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F266" t="s">
         <v>636</v>
@@ -10735,10 +10735,10 @@
         <v>757</v>
       </c>
       <c r="H266" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I266" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -10752,7 +10752,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F267" t="s">
         <v>637</v>
@@ -10761,10 +10761,10 @@
         <v>763</v>
       </c>
       <c r="H267" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I267" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -10778,7 +10778,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F268" t="s">
         <v>638</v>
@@ -10787,10 +10787,10 @@
         <v>806</v>
       </c>
       <c r="H268" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I268" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -10804,7 +10804,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F269" t="s">
         <v>639</v>
@@ -10813,13 +10813,13 @@
         <v>930</v>
       </c>
       <c r="H269" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I269" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J269" t="s">
         <v>1091</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -10833,7 +10833,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F270" t="s">
         <v>640</v>
@@ -10842,10 +10842,10 @@
         <v>931</v>
       </c>
       <c r="H270" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I270" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -10859,7 +10859,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F271" t="s">
         <v>641</v>
@@ -10868,10 +10868,10 @@
         <v>761</v>
       </c>
       <c r="H271" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I271" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -10885,7 +10885,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F272" t="s">
         <v>642</v>
@@ -10894,10 +10894,10 @@
         <v>844</v>
       </c>
       <c r="H272" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I272" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10911,7 +10911,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F273" t="s">
         <v>643</v>
@@ -10920,10 +10920,10 @@
         <v>932</v>
       </c>
       <c r="H273" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I273" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10937,7 +10937,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F274" t="s">
         <v>644</v>
@@ -10946,10 +10946,10 @@
         <v>757</v>
       </c>
       <c r="H274" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I274" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -10963,7 +10963,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F275" t="s">
         <v>645</v>
@@ -10972,10 +10972,10 @@
         <v>757</v>
       </c>
       <c r="H275" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="I275" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -10989,7 +10989,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F276" t="s">
         <v>646</v>
@@ -10998,10 +10998,10 @@
         <v>820</v>
       </c>
       <c r="H276" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="I276" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11015,7 +11015,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F277" t="s">
         <v>647</v>
@@ -11024,10 +11024,10 @@
         <v>757</v>
       </c>
       <c r="H277" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I277" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11041,7 +11041,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F278" t="s">
         <v>648</v>
@@ -11050,10 +11050,10 @@
         <v>933</v>
       </c>
       <c r="H278" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I278" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11067,7 +11067,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F279" t="s">
         <v>649</v>
@@ -11076,10 +11076,10 @@
         <v>934</v>
       </c>
       <c r="H279" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I279" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11093,7 +11093,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F280" t="s">
         <v>650</v>
@@ -11102,10 +11102,10 @@
         <v>763</v>
       </c>
       <c r="H280" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I280" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11122,7 +11122,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F281" t="s">
         <v>651</v>
@@ -11131,10 +11131,10 @@
         <v>919</v>
       </c>
       <c r="H281" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I281" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11148,7 +11148,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F282" t="s">
         <v>652</v>
@@ -11157,10 +11157,10 @@
         <v>935</v>
       </c>
       <c r="H282" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I282" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F283" t="s">
         <v>653</v>
@@ -11183,10 +11183,10 @@
         <v>802</v>
       </c>
       <c r="H283" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I283" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11200,7 +11200,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F284" t="s">
         <v>654</v>
@@ -11209,10 +11209,10 @@
         <v>769</v>
       </c>
       <c r="H284" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I284" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11226,7 +11226,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F285" t="s">
         <v>655</v>
@@ -11235,10 +11235,10 @@
         <v>936</v>
       </c>
       <c r="H285" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I285" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11252,7 +11252,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F286" t="s">
         <v>656</v>
@@ -11261,10 +11261,10 @@
         <v>937</v>
       </c>
       <c r="H286" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I286" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11278,7 +11278,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F287" t="s">
         <v>657</v>
@@ -11287,10 +11287,10 @@
         <v>938</v>
       </c>
       <c r="H287" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I287" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11304,7 +11304,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F288" t="s">
         <v>658</v>
@@ -11313,10 +11313,10 @@
         <v>768</v>
       </c>
       <c r="H288" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I288" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -11330,7 +11330,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F289" t="s">
         <v>659</v>
@@ -11339,10 +11339,10 @@
         <v>804</v>
       </c>
       <c r="H289" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I289" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -11356,7 +11356,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F290" t="s">
         <v>660</v>
@@ -11365,10 +11365,10 @@
         <v>757</v>
       </c>
       <c r="H290" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I290" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -11382,7 +11382,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F291" t="s">
         <v>661</v>
@@ -11391,10 +11391,10 @@
         <v>840</v>
       </c>
       <c r="H291" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I291" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -11408,7 +11408,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F292" t="s">
         <v>662</v>
@@ -11417,10 +11417,10 @@
         <v>908</v>
       </c>
       <c r="H292" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I292" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -11434,7 +11434,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F293" t="s">
         <v>663</v>
@@ -11443,10 +11443,10 @@
         <v>820</v>
       </c>
       <c r="H293" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I293" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -11460,7 +11460,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F294" t="s">
         <v>664</v>
@@ -11469,13 +11469,13 @@
         <v>939</v>
       </c>
       <c r="H294" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I294" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J294" t="s">
         <v>1091</v>
-      </c>
-      <c r="J294" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -11489,7 +11489,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F295" t="s">
         <v>665</v>
@@ -11498,13 +11498,13 @@
         <v>940</v>
       </c>
       <c r="H295" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I295" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J295" t="s">
         <v>1091</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -11518,7 +11518,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F296" t="s">
         <v>666</v>
@@ -11527,13 +11527,13 @@
         <v>925</v>
       </c>
       <c r="H296" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I296" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J296" t="s">
         <v>1091</v>
-      </c>
-      <c r="J296" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -11547,7 +11547,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F297" t="s">
         <v>667</v>
@@ -11556,10 +11556,10 @@
         <v>941</v>
       </c>
       <c r="H297" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I297" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -11573,7 +11573,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F298" t="s">
         <v>668</v>
@@ -11582,10 +11582,10 @@
         <v>942</v>
       </c>
       <c r="H298" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I298" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -11599,7 +11599,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F299" t="s">
         <v>669</v>
@@ -11608,10 +11608,10 @@
         <v>757</v>
       </c>
       <c r="H299" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I299" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -11625,7 +11625,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F300" t="s">
         <v>670</v>
@@ -11634,10 +11634,10 @@
         <v>757</v>
       </c>
       <c r="H300" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I300" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -11651,7 +11651,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F301" t="s">
         <v>671</v>
@@ -11660,10 +11660,10 @@
         <v>757</v>
       </c>
       <c r="H301" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I301" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -11677,7 +11677,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F302" t="s">
         <v>672</v>
@@ -11686,10 +11686,10 @@
         <v>761</v>
       </c>
       <c r="H302" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I302" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -11703,7 +11703,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F303" t="s">
         <v>673</v>
@@ -11712,10 +11712,10 @@
         <v>761</v>
       </c>
       <c r="H303" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I303" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -11729,7 +11729,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F304" t="s">
         <v>674</v>
@@ -11738,10 +11738,10 @@
         <v>943</v>
       </c>
       <c r="H304" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I304" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11755,7 +11755,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F305" t="s">
         <v>675</v>
@@ -11764,10 +11764,10 @@
         <v>806</v>
       </c>
       <c r="H305" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I305" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11784,7 +11784,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F306" t="s">
         <v>676</v>
@@ -11793,10 +11793,10 @@
         <v>944</v>
       </c>
       <c r="H306" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I306" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11810,7 +11810,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F307" t="s">
         <v>677</v>
@@ -11819,10 +11819,10 @@
         <v>761</v>
       </c>
       <c r="H307" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I307" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11836,7 +11836,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F308" t="s">
         <v>678</v>
@@ -11845,10 +11845,10 @@
         <v>945</v>
       </c>
       <c r="H308" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I308" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11862,7 +11862,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F309" t="s">
         <v>679</v>
@@ -11871,10 +11871,10 @@
         <v>757</v>
       </c>
       <c r="H309" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I309" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11888,7 +11888,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F310" t="s">
         <v>680</v>
@@ -11897,10 +11897,10 @@
         <v>946</v>
       </c>
       <c r="H310" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I310" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -11914,7 +11914,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F311" t="s">
         <v>681</v>
@@ -11923,10 +11923,10 @@
         <v>810</v>
       </c>
       <c r="H311" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I311" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -11940,7 +11940,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F312" t="s">
         <v>682</v>
@@ -11949,10 +11949,10 @@
         <v>947</v>
       </c>
       <c r="H312" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I312" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -11966,7 +11966,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F313" t="s">
         <v>683</v>
@@ -11975,10 +11975,10 @@
         <v>794</v>
       </c>
       <c r="H313" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I313" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -11992,7 +11992,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F314" t="s">
         <v>684</v>
@@ -12001,10 +12001,10 @@
         <v>948</v>
       </c>
       <c r="H314" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I314" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12018,7 +12018,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F315" t="s">
         <v>685</v>
@@ -12027,10 +12027,10 @@
         <v>810</v>
       </c>
       <c r="H315" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I315" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12044,7 +12044,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F316" t="s">
         <v>686</v>
@@ -12053,10 +12053,10 @@
         <v>810</v>
       </c>
       <c r="H316" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I316" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12070,7 +12070,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F317" t="s">
         <v>687</v>
@@ -12079,10 +12079,10 @@
         <v>949</v>
       </c>
       <c r="H317" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I317" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12096,7 +12096,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F318" t="s">
         <v>688</v>
@@ -12105,10 +12105,10 @@
         <v>950</v>
       </c>
       <c r="H318" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I318" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12122,7 +12122,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F319" t="s">
         <v>689</v>
@@ -12131,10 +12131,10 @@
         <v>951</v>
       </c>
       <c r="H319" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I319" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12148,7 +12148,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F320" t="s">
         <v>690</v>
@@ -12157,10 +12157,10 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I320" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12174,7 +12174,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F321" t="s">
         <v>691</v>
@@ -12183,10 +12183,10 @@
         <v>840</v>
       </c>
       <c r="H321" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I321" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12200,7 +12200,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F322" t="s">
         <v>692</v>
@@ -12209,10 +12209,10 @@
         <v>761</v>
       </c>
       <c r="H322" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I322" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12226,7 +12226,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F323" t="s">
         <v>693</v>
@@ -12235,10 +12235,10 @@
         <v>953</v>
       </c>
       <c r="H323" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I323" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12252,7 +12252,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F324" t="s">
         <v>694</v>
@@ -12261,10 +12261,10 @@
         <v>954</v>
       </c>
       <c r="H324" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I324" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12278,7 +12278,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F325" t="s">
         <v>695</v>
@@ -12287,10 +12287,10 @@
         <v>810</v>
       </c>
       <c r="H325" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I325" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12304,7 +12304,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F326" t="s">
         <v>696</v>
@@ -12313,10 +12313,10 @@
         <v>955</v>
       </c>
       <c r="H326" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I326" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12330,7 +12330,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F327" t="s">
         <v>697</v>
@@ -12339,10 +12339,10 @@
         <v>757</v>
       </c>
       <c r="H327" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I327" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12356,7 +12356,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F328" t="s">
         <v>698</v>
@@ -12365,10 +12365,10 @@
         <v>956</v>
       </c>
       <c r="H328" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I328" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12382,7 +12382,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F329" t="s">
         <v>699</v>
@@ -12391,10 +12391,10 @@
         <v>757</v>
       </c>
       <c r="H329" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I329" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12408,7 +12408,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F330" t="s">
         <v>700</v>
@@ -12417,10 +12417,10 @@
         <v>757</v>
       </c>
       <c r="H330" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I330" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12434,7 +12434,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F331" t="s">
         <v>701</v>
@@ -12443,10 +12443,10 @@
         <v>761</v>
       </c>
       <c r="H331" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I331" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12463,7 +12463,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F332" t="s">
         <v>702</v>
@@ -12472,10 +12472,10 @@
         <v>957</v>
       </c>
       <c r="H332" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I332" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12492,7 +12492,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F333" t="s">
         <v>703</v>
@@ -12501,10 +12501,10 @@
         <v>761</v>
       </c>
       <c r="H333" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I333" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12521,7 +12521,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F334" t="s">
         <v>704</v>
@@ -12530,10 +12530,10 @@
         <v>958</v>
       </c>
       <c r="H334" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I334" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12550,7 +12550,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F335" t="s">
         <v>705</v>
@@ -12559,10 +12559,10 @@
         <v>935</v>
       </c>
       <c r="H335" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I335" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12579,7 +12579,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F336" t="s">
         <v>706</v>
@@ -12588,10 +12588,10 @@
         <v>810</v>
       </c>
       <c r="H336" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I336" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12608,7 +12608,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F337" t="s">
         <v>707</v>
@@ -12617,10 +12617,10 @@
         <v>810</v>
       </c>
       <c r="H337" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I337" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12637,7 +12637,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F338" t="s">
         <v>708</v>
@@ -12646,10 +12646,10 @@
         <v>959</v>
       </c>
       <c r="H338" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="I338" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12666,7 +12666,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F339" t="s">
         <v>709</v>
@@ -12675,10 +12675,10 @@
         <v>796</v>
       </c>
       <c r="H339" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="I339" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12692,7 +12692,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F340" t="s">
         <v>710</v>
@@ -12701,10 +12701,10 @@
         <v>757</v>
       </c>
       <c r="H340" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I340" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12718,7 +12718,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F341" t="s">
         <v>711</v>
@@ -12727,10 +12727,10 @@
         <v>757</v>
       </c>
       <c r="H341" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I341" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12744,7 +12744,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F342" t="s">
         <v>712</v>
@@ -12753,10 +12753,10 @@
         <v>761</v>
       </c>
       <c r="H342" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I342" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12770,7 +12770,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F343" t="s">
         <v>713</v>
@@ -12779,10 +12779,10 @@
         <v>761</v>
       </c>
       <c r="H343" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I343" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12796,7 +12796,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F344" t="s">
         <v>714</v>
@@ -12805,10 +12805,10 @@
         <v>901</v>
       </c>
       <c r="H344" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I344" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12822,7 +12822,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F345" t="s">
         <v>715</v>
@@ -12831,10 +12831,10 @@
         <v>757</v>
       </c>
       <c r="H345" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I345" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12848,7 +12848,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F346" t="s">
         <v>716</v>
@@ -12857,10 +12857,10 @@
         <v>960</v>
       </c>
       <c r="H346" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I346" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -12874,7 +12874,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F347" t="s">
         <v>717</v>
@@ -12883,10 +12883,10 @@
         <v>961</v>
       </c>
       <c r="H347" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I347" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -12900,7 +12900,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F348" t="s">
         <v>718</v>
@@ -12909,10 +12909,10 @@
         <v>962</v>
       </c>
       <c r="H348" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I348" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -12926,7 +12926,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F349" t="s">
         <v>719</v>
@@ -12935,10 +12935,10 @@
         <v>963</v>
       </c>
       <c r="H349" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I349" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -12952,7 +12952,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F350" t="s">
         <v>720</v>
@@ -12961,10 +12961,10 @@
         <v>820</v>
       </c>
       <c r="H350" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I350" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -12978,7 +12978,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F351" t="s">
         <v>721</v>
@@ -12987,10 +12987,10 @@
         <v>761</v>
       </c>
       <c r="H351" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I351" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13004,7 +13004,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F352" t="s">
         <v>722</v>
@@ -13013,10 +13013,10 @@
         <v>964</v>
       </c>
       <c r="H352" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I352" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13030,7 +13030,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F353" t="s">
         <v>723</v>
@@ -13039,10 +13039,10 @@
         <v>965</v>
       </c>
       <c r="H353" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="I353" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13056,7 +13056,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F354" t="s">
         <v>724</v>
@@ -13068,7 +13068,7 @@
         <v>1002</v>
       </c>
       <c r="I354" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13082,7 +13082,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F355" t="s">
         <v>725</v>
@@ -13094,7 +13094,7 @@
         <v>1002</v>
       </c>
       <c r="I355" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13108,7 +13108,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F356" t="s">
         <v>726</v>
@@ -13120,7 +13120,7 @@
         <v>1002</v>
       </c>
       <c r="I356" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13134,7 +13134,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F357" t="s">
         <v>727</v>
@@ -13146,7 +13146,7 @@
         <v>1002</v>
       </c>
       <c r="I357" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13160,7 +13160,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F358" t="s">
         <v>728</v>
@@ -13169,10 +13169,10 @@
         <v>761</v>
       </c>
       <c r="H358" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I358" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13186,7 +13186,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F359" t="s">
         <v>729</v>
@@ -13195,10 +13195,10 @@
         <v>969</v>
       </c>
       <c r="H359" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I359" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13212,7 +13212,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F360" t="s">
         <v>730</v>
@@ -13221,16 +13221,16 @@
         <v>970</v>
       </c>
       <c r="H360" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I360" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K360" t="s">
         <v>1063</v>
       </c>
-      <c r="I360" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K360" t="s">
-        <v>1064</v>
-      </c>
       <c r="L360" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13244,7 +13244,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F361" t="s">
         <v>731</v>
@@ -13253,16 +13253,16 @@
         <v>971</v>
       </c>
       <c r="H361" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I361" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K361" t="s">
         <v>1063</v>
       </c>
-      <c r="I361" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K361" t="s">
-        <v>1064</v>
-      </c>
       <c r="L361" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13276,7 +13276,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F362" t="s">
         <v>732</v>
@@ -13285,10 +13285,10 @@
         <v>745</v>
       </c>
       <c r="H362" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I362" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13302,7 +13302,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F363" t="s">
         <v>733</v>
@@ -13311,10 +13311,10 @@
         <v>972</v>
       </c>
       <c r="H363" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I363" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13328,7 +13328,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F364" t="s">
         <v>734</v>
@@ -13337,10 +13337,10 @@
         <v>820</v>
       </c>
       <c r="H364" t="s">
-        <v>1065</v>
+        <v>1117</v>
       </c>
       <c r="I364" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -13354,7 +13354,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F365" t="s">
         <v>735</v>
@@ -13363,10 +13363,10 @@
         <v>901</v>
       </c>
       <c r="H365" t="s">
-        <v>1065</v>
+        <v>1117</v>
       </c>
       <c r="I365" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13380,7 +13380,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F366" t="s">
         <v>736</v>
@@ -13389,10 +13389,10 @@
         <v>761</v>
       </c>
       <c r="H366" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I366" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -13406,7 +13406,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F367" t="s">
         <v>737</v>
@@ -13415,10 +13415,10 @@
         <v>761</v>
       </c>
       <c r="H367" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I367" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -13432,7 +13432,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F368" t="s">
         <v>738</v>
@@ -13441,10 +13441,10 @@
         <v>761</v>
       </c>
       <c r="H368" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I368" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13458,7 +13458,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F369" t="s">
         <v>739</v>
@@ -13470,7 +13470,7 @@
         <v>1010</v>
       </c>
       <c r="I369" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13484,7 +13484,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F370" t="s">
         <v>740</v>
@@ -13496,7 +13496,7 @@
         <v>1010</v>
       </c>
       <c r="I370" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -13510,7 +13510,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F371" t="s">
         <v>741</v>
@@ -13522,7 +13522,7 @@
         <v>1010</v>
       </c>
       <c r="I371" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -13536,7 +13536,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F372" t="s">
         <v>742</v>
@@ -13548,7 +13548,7 @@
         <v>1010</v>
       </c>
       <c r="I372" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -13562,7 +13562,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F373" t="s">
         <v>743</v>
@@ -13574,7 +13574,7 @@
         <v>1010</v>
       </c>
       <c r="I373" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
